--- a/ListeSources.xlsx
+++ b/ListeSources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\MALAM357\GMT-3051 Projet en génie géomatique II\LymeProjet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA0724BD-3C3C-42B2-9AA4-0E5AB75783D4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA0ABC0-D9DA-40CF-B8FE-DF127D4D779B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C24C5B6B-DD13-474E-816E-6B6C3F834CC5}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>RN Canada</t>
   </si>
@@ -84,6 +84,15 @@
   </si>
   <si>
     <t>Liens</t>
+  </si>
+  <si>
+    <t>Types</t>
+  </si>
+  <si>
+    <t>Raster</t>
+  </si>
+  <si>
+    <t>Vecteur</t>
   </si>
 </sst>
 </file>
@@ -435,20 +444,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608697FE-B73F-4607-943B-A98F10C0876E}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="190.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="190.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -456,10 +466,13 @@
         <v>11</v>
       </c>
       <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -467,10 +480,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -478,10 +494,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -489,10 +508,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -500,10 +522,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -511,10 +536,13 @@
         <v>2</v>
       </c>
       <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -522,6 +550,9 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
         <v>9</v>
       </c>
     </row>

--- a/ListeSources.xlsx
+++ b/ListeSources.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\MALAM357\GMT-3051 Projet en génie géomatique II\LymeProjet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\GALAL35\Projet_lyme\LymeProjet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA0ABC0-D9DA-40CF-B8FE-DF127D4D779B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE4C351-C489-4FA6-9525-3D77428EC50F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C24C5B6B-DD13-474E-816E-6B6C3F834CC5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C24C5B6B-DD13-474E-816E-6B6C3F834CC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
   <si>
     <t>RN Canada</t>
   </si>
@@ -93,16 +91,45 @@
   </si>
   <si>
     <t>Vecteur</t>
+  </si>
+  <si>
+    <t>Zones agricoles</t>
+  </si>
+  <si>
+    <t>CPTAQ</t>
+  </si>
+  <si>
+    <t>http://www.cptaq.gouv.qc.ca/index.php?id=175&amp;file=zonage.zip</t>
+  </si>
+  <si>
+    <t>Champs</t>
+  </si>
+  <si>
+    <t>Valeur</t>
+  </si>
+  <si>
+    <t>DEFINITION</t>
+  </si>
+  <si>
+    <t>Zone agricole</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -125,13 +152,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -444,21 +474,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608697FE-B73F-4607-943B-A98F10C0876E}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="190.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="190.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -469,10 +499,16 @@
         <v>17</v>
       </c>
       <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -482,11 +518,11 @@
       <c r="C2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -496,11 +532,11 @@
       <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -510,11 +546,11 @@
       <c r="C4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -524,11 +560,11 @@
       <c r="C5" t="s">
         <v>19</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -538,11 +574,11 @@
       <c r="C6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -552,12 +588,35 @@
       <c r="C7" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F8" r:id="rId1" xr:uid="{FD159AED-FD91-4B43-8E66-7D00FD4A4E64}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
 </worksheet>
 </file>
--- a/ListeSources.xlsx
+++ b/ListeSources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\GALAL35\Projet_lyme\LymeProjet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE4C351-C489-4FA6-9525-3D77428EC50F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A13419-4B36-42A2-934C-241A084AEF41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C24C5B6B-DD13-474E-816E-6B6C3F834CC5}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>RN Canada</t>
   </si>
@@ -112,6 +112,30 @@
   </si>
   <si>
     <t>Zone agricole</t>
+  </si>
+  <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>ZA_CPTAQ</t>
+  </si>
+  <si>
+    <t>Parcs_MERN</t>
+  </si>
+  <si>
+    <t>Eau_CanVec</t>
+  </si>
+  <si>
+    <t>Foret_RNCan_Unknown</t>
+  </si>
+  <si>
+    <t>Foret_RNCan_Needleleaf</t>
+  </si>
+  <si>
+    <t>Foret_RNCan_Broadleaf</t>
+  </si>
+  <si>
+    <t>ZH_CanardsIlimites</t>
   </si>
 </sst>
 </file>
@@ -474,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608697FE-B73F-4607-943B-A98F10C0876E}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,10 +509,11 @@
     <col min="1" max="1" width="17.5703125" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="190.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="190.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -505,10 +530,13 @@
         <v>24</v>
       </c>
       <c r="F1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -519,10 +547,13 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -533,10 +564,13 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -547,10 +581,13 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -561,10 +598,13 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -575,10 +615,13 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -589,10 +632,13 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -608,15 +654,20 @@
       <c r="E8" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1" xr:uid="{FD159AED-FD91-4B43-8E66-7D00FD4A4E64}"/>
+    <hyperlink ref="G8" r:id="rId1" xr:uid="{FD159AED-FD91-4B43-8E66-7D00FD4A4E64}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{2929B7F7-29E4-49FE-BEA8-D2A66FAE68BD}"/>
+    <hyperlink ref="G2" r:id="rId3" xr:uid="{54E31760-57BD-4255-880B-55A2339FEBF0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId4"/>
 </worksheet>
 </file>
--- a/ListeSources.xlsx
+++ b/ListeSources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\GALAL35\Projet_lyme\LymeProjet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A13419-4B36-42A2-934C-241A084AEF41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6181FC99-A20F-4F93-B2E9-35075FF6006C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C24C5B6B-DD13-474E-816E-6B6C3F834CC5}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>RN Canada</t>
   </si>
@@ -117,9 +117,6 @@
     <t>Nom</t>
   </si>
   <si>
-    <t>ZA_CPTAQ</t>
-  </si>
-  <si>
     <t>Parcs_MERN</t>
   </si>
   <si>
@@ -136,6 +133,27 @@
   </si>
   <si>
     <t>ZH_CanardsIlimites</t>
+  </si>
+  <si>
+    <t>Voies de communication</t>
+  </si>
+  <si>
+    <t>Transport_CanVec</t>
+  </si>
+  <si>
+    <t>http://ftp.geogratis.gc.ca/pub/nrcan_rncan/vector/canvec/shp/Transport/canvec_250K_QC_Transport_shp.zip</t>
+  </si>
+  <si>
+    <t>http://ftp.geogratis.gc.ca/pub/nrcan_rncan/vector/canvec/shp/ManMade/canvec_50K_QC_ManMade_shp.zip</t>
+  </si>
+  <si>
+    <t>Zones anthropisées</t>
+  </si>
+  <si>
+    <t>ZAnt_CanVec</t>
+  </si>
+  <si>
+    <t>ZAgr_CPTAQ</t>
   </si>
 </sst>
 </file>
@@ -498,15 +516,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608697FE-B73F-4607-943B-A98F10C0876E}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="15.7109375" customWidth="1"/>
     <col min="6" max="6" width="24.28515625" customWidth="1"/>
@@ -547,7 +565,7 @@
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>4</v>
@@ -564,7 +582,7 @@
         <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>5</v>
@@ -581,7 +599,7 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G4" t="s">
         <v>6</v>
@@ -598,7 +616,7 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G5" t="s">
         <v>7</v>
@@ -615,7 +633,7 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
         <v>8</v>
@@ -632,7 +650,7 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
         <v>9</v>
@@ -655,10 +673,44 @@
         <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/ListeSources.xlsx
+++ b/ListeSources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\GALAL35\Projet_lyme\LymeProjet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6181FC99-A20F-4F93-B2E9-35075FF6006C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66C080D-D90A-4F00-A27B-421BED2C4732}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C24C5B6B-DD13-474E-816E-6B6C3F834CC5}"/>
   </bookViews>
@@ -519,7 +519,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ListeSources.xlsx
+++ b/ListeSources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\GALAL35\Projet_lyme\LymeProjet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D66C080D-D90A-4F00-A27B-421BED2C4732}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAA0950-3C64-470F-93FD-4624E440644D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C24C5B6B-DD13-474E-816E-6B6C3F834CC5}"/>
+    <workbookView xWindow="3135" yWindow="1410" windowWidth="15375" windowHeight="7890" xr2:uid="{C24C5B6B-DD13-474E-816E-6B6C3F834CC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -147,13 +147,13 @@
     <t>http://ftp.geogratis.gc.ca/pub/nrcan_rncan/vector/canvec/shp/ManMade/canvec_50K_QC_ManMade_shp.zip</t>
   </si>
   <si>
-    <t>Zones anthropisées</t>
-  </si>
-  <si>
     <t>ZAnt_CanVec</t>
   </si>
   <si>
     <t>ZAgr_CPTAQ</t>
+  </si>
+  <si>
+    <t>Zones anthropisees</t>
   </si>
 </sst>
 </file>
@@ -519,7 +519,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,7 +673,7 @@
         <v>26</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>22</v>
@@ -698,7 +698,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
@@ -707,7 +707,7 @@
         <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s">
         <v>37</v>

--- a/ListeSources.xlsx
+++ b/ListeSources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\GALAL35\Projet_lyme\LymeProjet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\MALAM357\GMT-3051 Projet en génie géomatique II\LymeProjet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEAA0950-3C64-470F-93FD-4624E440644D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE9EEA8A-7F5A-4C28-BF07-169FE7975A70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3135" yWindow="1410" windowWidth="15375" windowHeight="7890" xr2:uid="{C24C5B6B-DD13-474E-816E-6B6C3F834CC5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{C24C5B6B-DD13-474E-816E-6B6C3F834CC5}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -63,9 +63,6 @@
     <t>http://www.cec.org/sites/default/files/Atlas/Files/NA_ProtectedAreas_2017/NA_ProtectedAreas_2017_Shapefile.rar</t>
   </si>
   <si>
-    <t>Determinant</t>
-  </si>
-  <si>
     <t>Sources</t>
   </si>
   <si>
@@ -105,18 +102,12 @@
     <t>Champs</t>
   </si>
   <si>
-    <t>Valeur</t>
-  </si>
-  <si>
     <t>DEFINITION</t>
   </si>
   <si>
     <t>Zone agricole</t>
   </si>
   <si>
-    <t>Nom</t>
-  </si>
-  <si>
     <t>Parcs_MERN</t>
   </si>
   <si>
@@ -154,6 +145,15 @@
   </si>
   <si>
     <t>Zones anthropisees</t>
+  </si>
+  <si>
+    <t>Determinants</t>
+  </si>
+  <si>
+    <t>Noms</t>
+  </si>
+  <si>
+    <t>Valeurs</t>
   </si>
 </sst>
 </file>
@@ -518,8 +518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{608697FE-B73F-4607-943B-A98F10C0876E}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,39 +533,39 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>4</v>
@@ -573,16 +573,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>5</v>
@@ -590,16 +590,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
         <v>6</v>
@@ -607,16 +607,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G5" t="s">
         <v>7</v>
@@ -624,16 +624,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
         <v>8</v>
@@ -641,16 +641,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="G7" t="s">
         <v>9</v>
@@ -658,59 +658,59 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B9" t="s">
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
